--- a/medicine/Psychotrope/Fine_(eau-de-vie)/Fine_(eau-de-vie).xlsx
+++ b/medicine/Psychotrope/Fine_(eau-de-vie)/Fine_(eau-de-vie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fine est l'eau-de-vie de vin. Elle ne doit pas être confondue avec l'eau-de-vie de marc résultant de la distillation du marc de raisin, dit de cuve ou de vin.
 L'équivalent en langue anglaise de la fine est le brandy (qui, associé à un nom de fruit, désigne en revanche un spiritueux provenant de ce fruit).
@@ -512,7 +524,9 @@
           <t>Élaboration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eau-de-vie de vin est obtenue par distillation (simple ou double) d'un vin de chaudière. La plupart des eaux-de-vie de vin sont élevées sous bois.
 </t>
@@ -543,7 +557,9 @@
           <t>Eaux-de-vie de vin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aguardiente (Espagne)
 Arak (Croissant fertile)
@@ -551,7 +567,7 @@
 Fines en France :
 Armagnac
 Cognac
-Fine Bordeaux[1]
+Fine Bordeaux
 Fine de Bourgogne
 Fine du Bugey
 Fine Faugère
